--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Eclipse_Neon\Workspace\seleniumExcelTest\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\seleniumExcelTest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Username</t>
   </si>
@@ -47,13 +47,19 @@
     <t>Authentication failed. Please try again.</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>The field Email Address is required</t>
+  </si>
+  <si>
+    <t>The field Password is required</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,9 +98,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -376,13 +383,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -413,14 +423,37 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
